--- a/开发工作跟踪表0619_0622.xlsx
+++ b/开发工作跟踪表0619_0622.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总!$A$1:$P$48</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="145">
   <si>
     <t>序列</t>
   </si>
@@ -985,14 +985,6 @@
 增加驾驶员标签按钮，点击显示驾驶员标签，包括“他的标签”和“同事印象”两个切换标签</t>
   </si>
   <si>
-    <t>企业经营</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态页面完成</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>开发中，缺失新增字段</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1010,13 +1002,41 @@
   </si>
   <si>
     <t>待后台给新增字段</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发状态（06/27）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发状态（06/28）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发状态（06/29）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发状态（06/30）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业经营-设变页面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业经营-新增页面</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -2432,7 +2452,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2474,7 +2494,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2516,7 +2536,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2558,7 +2578,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2603,7 +2623,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2647,7 +2667,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2688,7 +2708,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2730,7 +2750,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2772,7 +2792,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2814,7 +2834,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2859,7 +2879,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2903,7 +2923,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3230,19 +3250,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1590674</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>416174</xdr:rowOff>
+      <xdr:colOff>1684590</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="2018-06-20_184950.png"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="2018-06-27_110603.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3255,8 +3275,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1438275" y="228600"/>
-          <a:ext cx="1523999" cy="368549"/>
+          <a:off x="1514475" y="752475"/>
+          <a:ext cx="1541715" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>858953</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>456353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="2018-06-27_110115.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="242486"/>
+          <a:ext cx="687503" cy="394842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981077</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1695451</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>456095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="2018-06-27_110412.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352677" y="249613"/>
+          <a:ext cx="714374" cy="387457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3269,7 +3365,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3343,7 +3439,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3378,7 +3473,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3554,7 +3648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
@@ -5677,7 +5771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5869,10 +5963,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -5923,7 +6017,7 @@
       <c r="C2" s="16"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -5940,7 +6034,7 @@
       <c r="C3" s="18"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -5956,7 +6050,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -5974,7 +6068,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -5991,7 +6085,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -6082,7 +6176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6274,7 +6368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6510,15 +6604,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="7" width="26.75" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
@@ -6536,16 +6631,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -6558,14 +6653,14 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="B2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -6575,8 +6670,10 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="18"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -6707,7 +6804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6899,7 +6996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7091,7 +7188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
